--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ00_Scenarios_TestDataPreparation.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ00_Scenarios_TestDataPreparation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_scotia\DataSet\LoanIQ_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E36EDE-7C61-40A1-87EF-8CAFC3C8DA97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC6A210-AF48-43B3-8E4D-9110250E8175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_PartyUpdate" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="435">
   <si>
     <t>rowid</t>
   </si>
@@ -1366,7 +1366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1402,12 +1402,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1838,7 +1832,9 @@
   </sheetPr>
   <dimension ref="A1:CK8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2049,6 +2045,9 @@
       <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
       <c r="AU1" s="6"/>
@@ -2225,6 +2224,9 @@
       <c r="AQ2" t="s">
         <v>83</v>
       </c>
+      <c r="AR2" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2333,6 +2335,9 @@
         <v>75</v>
       </c>
       <c r="AJ3" s="7"/>
+      <c r="AR3" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2455,7 +2460,9 @@
       <c r="AQ4" t="s">
         <v>91</v>
       </c>
-      <c r="AR4" s="10"/>
+      <c r="AR4" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
       <c r="AU4" s="10"/>
@@ -2585,6 +2592,9 @@
         <v>75</v>
       </c>
       <c r="AJ5" s="7"/>
+      <c r="AR5" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2693,6 +2703,9 @@
         <v>75</v>
       </c>
       <c r="AJ6" s="7"/>
+      <c r="AR6" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2801,6 +2814,9 @@
         <v>75</v>
       </c>
       <c r="AJ7" s="7"/>
+      <c r="AR7" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2909,6 +2925,9 @@
         <v>75</v>
       </c>
       <c r="AJ8" s="7"/>
+      <c r="AR8" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2929,8 +2948,8 @@
   <dimension ref="A1:CR9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR6" sqref="AR6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3149,7 +3168,9 @@
       <c r="AQ1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AR1" s="6"/>
+      <c r="AR1" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
       <c r="AU1" s="6"/>
@@ -3333,6 +3354,9 @@
       <c r="AQ2" t="s">
         <v>144</v>
       </c>
+      <c r="AR2" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3464,6 +3488,9 @@
       <c r="AQ3" t="s">
         <v>148</v>
       </c>
+      <c r="AR3" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3595,7 +3622,9 @@
       <c r="AQ4" t="s">
         <v>151</v>
       </c>
-      <c r="AR4" s="10"/>
+      <c r="AR4" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="AS4" s="10"/>
       <c r="AU4" s="10"/>
       <c r="AV4" s="10"/>
@@ -3753,6 +3782,9 @@
       <c r="AQ5" t="s">
         <v>154</v>
       </c>
+      <c r="AR5" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3884,6 +3916,9 @@
       <c r="AQ6" t="s">
         <v>157</v>
       </c>
+      <c r="AR6" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -4015,6 +4050,9 @@
       <c r="AQ7" t="s">
         <v>158</v>
       </c>
+      <c r="AR7" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="8" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -4146,6 +4184,9 @@
       <c r="AQ8" t="s">
         <v>159</v>
       </c>
+      <c r="AR8" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -4276,6 +4317,9 @@
       </c>
       <c r="AQ9" t="s">
         <v>162</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -4296,8 +4340,8 @@
   </sheetPr>
   <dimension ref="A1:EN6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EM1" sqref="EM1:EN2"/>
+    <sheetView tabSelected="1" topLeftCell="EI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EO9" sqref="EO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ00_Scenarios_TestDataPreparation.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ00_Scenarios_TestDataPreparation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_scotia\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC6A210-AF48-43B3-8E4D-9110250E8175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E36EDE-7C61-40A1-87EF-8CAFC3C8DA97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_PartyUpdate" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="435">
   <si>
     <t>rowid</t>
   </si>
@@ -1366,7 +1366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1402,6 +1402,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1832,9 +1838,7 @@
   </sheetPr>
   <dimension ref="A1:CK8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2045,9 +2049,6 @@
       <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
       <c r="AU1" s="6"/>
@@ -2224,9 +2225,6 @@
       <c r="AQ2" t="s">
         <v>83</v>
       </c>
-      <c r="AR2" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2335,9 +2333,6 @@
         <v>75</v>
       </c>
       <c r="AJ3" s="7"/>
-      <c r="AR3" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2460,9 +2455,7 @@
       <c r="AQ4" t="s">
         <v>91</v>
       </c>
-      <c r="AR4" s="2" t="s">
-        <v>433</v>
-      </c>
+      <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
       <c r="AU4" s="10"/>
@@ -2592,9 +2585,6 @@
         <v>75</v>
       </c>
       <c r="AJ5" s="7"/>
-      <c r="AR5" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2703,9 +2693,6 @@
         <v>75</v>
       </c>
       <c r="AJ6" s="7"/>
-      <c r="AR6" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2814,9 +2801,6 @@
         <v>75</v>
       </c>
       <c r="AJ7" s="7"/>
-      <c r="AR7" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2925,9 +2909,6 @@
         <v>75</v>
       </c>
       <c r="AJ8" s="7"/>
-      <c r="AR8" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2948,8 +2929,8 @@
   <dimension ref="A1:CR9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR6" sqref="AR6"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3168,9 +3149,7 @@
       <c r="AQ1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AR1" s="6" t="s">
-        <v>431</v>
-      </c>
+      <c r="AR1" s="6"/>
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
       <c r="AU1" s="6"/>
@@ -3354,9 +3333,6 @@
       <c r="AQ2" t="s">
         <v>144</v>
       </c>
-      <c r="AR2" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3488,9 +3464,6 @@
       <c r="AQ3" t="s">
         <v>148</v>
       </c>
-      <c r="AR3" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3622,9 +3595,7 @@
       <c r="AQ4" t="s">
         <v>151</v>
       </c>
-      <c r="AR4" s="2" t="s">
-        <v>433</v>
-      </c>
+      <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AU4" s="10"/>
       <c r="AV4" s="10"/>
@@ -3782,9 +3753,6 @@
       <c r="AQ5" t="s">
         <v>154</v>
       </c>
-      <c r="AR5" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3916,9 +3884,6 @@
       <c r="AQ6" t="s">
         <v>157</v>
       </c>
-      <c r="AR6" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -4050,9 +4015,6 @@
       <c r="AQ7" t="s">
         <v>158</v>
       </c>
-      <c r="AR7" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="8" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -4184,9 +4146,6 @@
       <c r="AQ8" t="s">
         <v>159</v>
       </c>
-      <c r="AR8" s="2" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -4317,9 +4276,6 @@
       </c>
       <c r="AQ9" t="s">
         <v>162</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -4340,8 +4296,8 @@
   </sheetPr>
   <dimension ref="A1:EN6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EO9" sqref="EO9"/>
+    <sheetView tabSelected="1" topLeftCell="DT1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EM1" sqref="EM1:EN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
